--- a/data/extracted_scenathon/20240427_ExtractedPA.xlsx
+++ b/data/extracted_scenathon/20240427_ExtractedPA.xlsx
@@ -1,556 +1,585 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\SOFA-2024\data\extracted_scenathon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1472618F-D638-462A-9155-FF60CBB6C58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$313</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
-  <si>
-    <t xml:space="preserve">lcagg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paareatarget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPHA3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14683.949000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CurrentTrend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14683.949000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OtherLand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.20099999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27782.885999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27782.886000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89904.060999999972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89904.061000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215014.86399999994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215014.864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25433.86399999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25433.863999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56102.721999999972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56102.722000000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39173.101999999992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39173.101999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83645.988999999914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87075.807696560776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15209.829999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16456.178750622254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15738.133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967.27899999999988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967.27900000000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6673.759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.557999999999993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.13953504484664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.176000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.365953067289283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3177.8630000000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10392.292000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2333.0969999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1240.3869999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">908.984812570999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1900.6459029605608</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1733.0819999999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1733.0820000000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">812.4749999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">812.47499999999991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19371.855999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19371.855999999992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309.053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309.05300000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1028.6980000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.39600000000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">273.39600000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1094.2719999999997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1635.3904850019212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6977.8200000000024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7152.0040336165694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1211.5100000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1555.8775735345146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.811000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.430549963871153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49194.194999999985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_ASP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49194.195000000022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7256.9710000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7256.9709999999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116377.3109999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_CSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116377.31100000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12707.380000000012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12707.380000000003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6618.2109999999975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_NEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6618.2110000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">584.65000000000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43791.779999999992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_OEU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43791.779999999984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3455.6569999999988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3455.6570000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128267.58099999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_SSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128267.58100000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88154.277000000016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">88154.276999999944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3861.4170000000013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_NMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3861.4169999999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18667.64599999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18667.645999999993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110595.12700000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96407.199999999968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41957.855999999985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13011.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.98000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.53279919542609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.448000000000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.180840324144881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.278999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5907.4376445091139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.554000000000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198.6827387342307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47280.828999999976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47178.73000000001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44728.22100000002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44669.140999999996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobalSustainability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48540.548939490305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">179.36821835757189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58648.691177750792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221128.75327365208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219481.52047914971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32593.921166124575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141950.50135973594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94719.867776087209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16599.467125766554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1201.4997067282716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6675.5474788125957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86.639774937742487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9775.6381817861693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20311.830887276101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6333.3698379644093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1741.249965926311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">967.27098214998966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1986.5172882598176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23637.137864937991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">416.35698272697641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1817.4028795345146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.469097963871153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145519.59873975563</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45571.974829438761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153109.9810563855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22325.568669400898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30951.526909802618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4676.9582420608012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227448.03264875693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153082.36350197013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4540.7874659264835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22606.318366861669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67029.703980049686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65046.897715914616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalCommitments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37627.778841407395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131323.58525347343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105264.54827284535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">71230.589576755388</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5183.0082879644087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1597.2164159263111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1425.7051574364968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.902582023802474</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54200.05454325059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10815.310972399157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146326.28341648329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97842.807355048426</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="179">
+  <si>
+    <t>lcagg</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>paareatarget</t>
+  </si>
+  <si>
+    <t>ALPHA3</t>
+  </si>
+  <si>
+    <t>Pathway</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>14683.949000000002</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>CurrentTrend</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>14683.949000000001</t>
+  </si>
+  <si>
+    <t>OtherLand</t>
+  </si>
+  <si>
+    <t>179.20099999999996</t>
+  </si>
+  <si>
+    <t>27782.885999999999</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>27782.886000000002</t>
+  </si>
+  <si>
+    <t>89904.060999999972</t>
+  </si>
+  <si>
+    <t>89904.061000000002</t>
+  </si>
+  <si>
+    <t>215014.86399999994</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>215014.864</t>
+  </si>
+  <si>
+    <t>25433.86399999999</t>
+  </si>
+  <si>
+    <t>25433.863999999998</t>
+  </si>
+  <si>
+    <t>56102.721999999972</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>56102.722000000009</t>
+  </si>
+  <si>
+    <t>39173.101999999992</t>
+  </si>
+  <si>
+    <t>39173.101999999999</t>
+  </si>
+  <si>
+    <t>83645.988999999914</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>87075.807696560776</t>
+  </si>
+  <si>
+    <t>15209.829999999998</t>
+  </si>
+  <si>
+    <t>16456.178750622254</t>
+  </si>
+  <si>
+    <t>15738.133</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>967.27899999999988</t>
+  </si>
+  <si>
+    <t>967.27900000000011</t>
+  </si>
+  <si>
+    <t>6673.759</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>86.557999999999993</t>
+  </si>
+  <si>
+    <t>97.79</t>
+  </si>
+  <si>
+    <t>DNK</t>
+  </si>
+  <si>
+    <t>104.13953504484664</t>
+  </si>
+  <si>
+    <t>61.176000000000002</t>
+  </si>
+  <si>
+    <t>66.365953067289283</t>
+  </si>
+  <si>
+    <t>3177.8630000000003</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>10392.292000000001</t>
+  </si>
+  <si>
+    <t>2333.0969999999998</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>1240.3869999999999</t>
+  </si>
+  <si>
+    <t>908.984812570999</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>1900.6459029605608</t>
+  </si>
+  <si>
+    <t>1733.0819999999999</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>1733.0820000000003</t>
+  </si>
+  <si>
+    <t>812.4749999999998</t>
+  </si>
+  <si>
+    <t>812.47499999999991</t>
+  </si>
+  <si>
+    <t>19371.855999999996</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>19371.855999999992</t>
+  </si>
+  <si>
+    <t>309.053</t>
+  </si>
+  <si>
+    <t>309.05300000000005</t>
+  </si>
+  <si>
+    <t>1028.6980000000001</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>273.39600000000007</t>
+  </si>
+  <si>
+    <t>273.39600000000002</t>
+  </si>
+  <si>
+    <t>1094.2719999999997</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>1635.3904850019212</t>
+  </si>
+  <si>
+    <t>6977.8200000000024</t>
+  </si>
+  <si>
+    <t>7152.0040336165694</t>
+  </si>
+  <si>
+    <t>1211.5100000000002</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>1555.8775735345146</t>
+  </si>
+  <si>
+    <t>11.811000000000002</t>
+  </si>
+  <si>
+    <t>13.430549963871153</t>
+  </si>
+  <si>
+    <t>49194.194999999985</t>
+  </si>
+  <si>
+    <t>R_ASP</t>
+  </si>
+  <si>
+    <t>49194.195000000022</t>
+  </si>
+  <si>
+    <t>7256.9710000000005</t>
+  </si>
+  <si>
+    <t>7256.9709999999995</t>
+  </si>
+  <si>
+    <t>116377.3109999999</t>
+  </si>
+  <si>
+    <t>R_CSA</t>
+  </si>
+  <si>
+    <t>116377.31100000007</t>
+  </si>
+  <si>
+    <t>12707.380000000012</t>
+  </si>
+  <si>
+    <t>12707.380000000003</t>
+  </si>
+  <si>
+    <t>6618.2109999999975</t>
+  </si>
+  <si>
+    <t>R_NEU</t>
+  </si>
+  <si>
+    <t>6618.2110000000002</t>
+  </si>
+  <si>
+    <t>584.65</t>
+  </si>
+  <si>
+    <t>584.65000000000009</t>
+  </si>
+  <si>
+    <t>43791.779999999992</t>
+  </si>
+  <si>
+    <t>R_OEU</t>
+  </si>
+  <si>
+    <t>43791.779999999984</t>
+  </si>
+  <si>
+    <t>3455.6569999999988</t>
+  </si>
+  <si>
+    <t>3455.6570000000002</t>
+  </si>
+  <si>
+    <t>128267.58099999995</t>
+  </si>
+  <si>
+    <t>R_SSA</t>
+  </si>
+  <si>
+    <t>128267.58100000002</t>
+  </si>
+  <si>
+    <t>88154.277000000016</t>
+  </si>
+  <si>
+    <t>88154.276999999944</t>
+  </si>
+  <si>
+    <t>3861.4170000000013</t>
+  </si>
+  <si>
+    <t>R_NMC</t>
+  </si>
+  <si>
+    <t>3861.4169999999995</t>
+  </si>
+  <si>
+    <t>18667.64599999999</t>
+  </si>
+  <si>
+    <t>18667.645999999993</t>
+  </si>
+  <si>
+    <t>110595.12700000004</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>96407.199999999968</t>
+  </si>
+  <si>
+    <t>41957.855999999985</t>
+  </si>
+  <si>
+    <t>13011.007</t>
+  </si>
+  <si>
+    <t>128.98000000000002</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>158.53279919542609</t>
+  </si>
+  <si>
+    <t>72.448000000000008</t>
+  </si>
+  <si>
+    <t>91.180840324144881</t>
+  </si>
+  <si>
+    <t>13.278999999999998</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>5907.4376445091139</t>
+  </si>
+  <si>
+    <t>23.554000000000002</t>
+  </si>
+  <si>
+    <t>1198.6827387342307</t>
+  </si>
+  <si>
+    <t>47280.828999999976</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>47178.73000000001</t>
+  </si>
+  <si>
+    <t>44728.22100000002</t>
+  </si>
+  <si>
+    <t>44669.140999999996</t>
+  </si>
+  <si>
+    <t>GlobalSustainability</t>
+  </si>
+  <si>
+    <t>48540.548939490305</t>
+  </si>
+  <si>
+    <t>179.36821835757189</t>
+  </si>
+  <si>
+    <t>58648.691177750792</t>
+  </si>
+  <si>
+    <t>221128.75327365208</t>
+  </si>
+  <si>
+    <t>219481.52047914971</t>
+  </si>
+  <si>
+    <t>32593.921166124575</t>
+  </si>
+  <si>
+    <t>141950.50135973594</t>
+  </si>
+  <si>
+    <t>94719.867776087209</t>
+  </si>
+  <si>
+    <t>16599.467125766554</t>
+  </si>
+  <si>
+    <t>1201.4997067282716</t>
+  </si>
+  <si>
+    <t>6675.5474788125957</t>
+  </si>
+  <si>
+    <t>86.639774937742487</t>
+  </si>
+  <si>
+    <t>9775.6381817861693</t>
+  </si>
+  <si>
+    <t>20311.830887276101</t>
+  </si>
+  <si>
+    <t>6333.3698379644093</t>
+  </si>
+  <si>
+    <t>1741.249965926311</t>
+  </si>
+  <si>
+    <t>967.27098214998966</t>
+  </si>
+  <si>
+    <t>1986.5172882598176</t>
+  </si>
+  <si>
+    <t>23637.137864937991</t>
+  </si>
+  <si>
+    <t>416.35698272697641</t>
+  </si>
+  <si>
+    <t>1817.4028795345146</t>
+  </si>
+  <si>
+    <t>14.469097963871153</t>
+  </si>
+  <si>
+    <t>145519.59873975563</t>
+  </si>
+  <si>
+    <t>45571.974829438761</t>
+  </si>
+  <si>
+    <t>153109.9810563855</t>
+  </si>
+  <si>
+    <t>22325.568669400898</t>
+  </si>
+  <si>
+    <t>30951.526909802618</t>
+  </si>
+  <si>
+    <t>4676.9582420608012</t>
+  </si>
+  <si>
+    <t>227448.03264875693</t>
+  </si>
+  <si>
+    <t>153082.36350197013</t>
+  </si>
+  <si>
+    <t>4540.7874659264835</t>
+  </si>
+  <si>
+    <t>22606.318366861669</t>
+  </si>
+  <si>
+    <t>67029.703980049686</t>
+  </si>
+  <si>
+    <t>65046.897715914616</t>
+  </si>
+  <si>
+    <t>NationalCommitments</t>
+  </si>
+  <si>
+    <t>37627.778841407395</t>
+  </si>
+  <si>
+    <t>131323.58525347343</t>
+  </si>
+  <si>
+    <t>105264.54827284535</t>
+  </si>
+  <si>
+    <t>71230.589576755388</t>
+  </si>
+  <si>
+    <t>5183.0082879644087</t>
+  </si>
+  <si>
+    <t>1597.2164159263111</t>
+  </si>
+  <si>
+    <t>1425.7051574364968</t>
+  </si>
+  <si>
+    <t>12.902582023802474</t>
+  </si>
+  <si>
+    <t>54200.05454325059</t>
+  </si>
+  <si>
+    <t>10815.310972399157</t>
+  </si>
+  <si>
+    <t>146326.28341648329</t>
+  </si>
+  <si>
+    <t>97842.807355048426</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>SWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -586,6 +615,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -867,14 +905,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E337"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G323" sqref="G323"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -908,7 +948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -925,7 +965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -942,7 +982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -959,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -976,7 +1016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +1050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1027,7 +1067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1078,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1163,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1197,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1214,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1248,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1265,7 +1305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1282,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1299,7 +1339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1333,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1350,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +1458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1435,7 +1475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1469,7 +1509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1486,7 +1526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1503,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1537,7 +1577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -1571,7 +1611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1588,7 +1628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1656,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1673,7 +1713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1690,7 +1730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1707,7 +1747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -1758,7 +1798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +1849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1826,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +1900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1877,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -1911,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +1968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1945,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +2019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1996,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2047,7 +2087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2098,7 +2138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2149,7 +2189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2166,7 +2206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2183,7 +2223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2200,7 +2240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2217,7 +2257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -2251,7 +2291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2285,7 +2325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>12</v>
       </c>
@@ -2302,7 +2342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2319,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2336,7 +2376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2353,7 +2393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -2370,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2387,7 +2427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2421,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -2438,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -2455,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2472,7 +2512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2489,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -2506,7 +2546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -2523,7 +2563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2540,7 +2580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2557,7 +2597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -2574,7 +2614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -2591,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2608,7 +2648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2625,7 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>12</v>
       </c>
@@ -2642,7 +2682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>12</v>
       </c>
@@ -2659,7 +2699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2676,7 +2716,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +2733,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>12</v>
       </c>
@@ -2710,7 +2750,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>12</v>
       </c>
@@ -2727,7 +2767,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2784,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2761,7 +2801,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>12</v>
       </c>
@@ -2778,7 +2818,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -2795,7 +2835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2852,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2829,7 +2869,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>12</v>
       </c>
@@ -2846,7 +2886,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -2863,7 +2903,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2897,7 +2937,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +2954,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2971,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +2988,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +3005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>12</v>
       </c>
@@ -2982,7 +3022,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -2999,7 +3039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3016,7 +3056,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3033,7 +3073,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -3050,7 +3090,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>12</v>
       </c>
@@ -3067,7 +3107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3084,7 +3124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3101,7 +3141,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3158,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3175,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3192,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -3169,7 +3209,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>12</v>
       </c>
@@ -3186,7 +3226,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>12</v>
       </c>
@@ -3203,7 +3243,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -3220,7 +3260,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3294,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -3271,7 +3311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -3288,7 +3328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3345,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>12</v>
       </c>
@@ -3322,7 +3362,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -3339,7 +3379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -3356,7 +3396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3373,7 +3413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>12</v>
       </c>
@@ -3390,7 +3430,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>12</v>
       </c>
@@ -3407,7 +3447,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3424,7 +3464,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3441,7 +3481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>12</v>
       </c>
@@ -3458,7 +3498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -3475,7 +3515,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -3492,7 +3532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -3509,7 +3549,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>12</v>
       </c>
@@ -3526,7 +3566,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>12</v>
       </c>
@@ -3543,7 +3583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3560,7 +3600,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -3577,7 +3617,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>12</v>
       </c>
@@ -3594,7 +3634,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3611,7 +3651,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3668,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3645,7 +3685,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -3662,7 +3702,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -3679,7 +3719,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -3696,7 +3736,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3713,7 +3753,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>12</v>
       </c>
@@ -3730,7 +3770,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>12</v>
       </c>
@@ -3747,7 +3787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -3764,7 +3804,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -3781,7 +3821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>12</v>
       </c>
@@ -3798,7 +3838,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>12</v>
       </c>
@@ -3815,7 +3855,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3832,7 +3872,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -3849,7 +3889,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>12</v>
       </c>
@@ -3866,7 +3906,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>12</v>
       </c>
@@ -3883,7 +3923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -3900,7 +3940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -3917,7 +3957,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>12</v>
       </c>
@@ -3934,7 +3974,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>12</v>
       </c>
@@ -3951,7 +3991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -3968,7 +4008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -3985,7 +4025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -4002,7 +4042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>12</v>
       </c>
@@ -4019,7 +4059,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4076,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -4053,7 +4093,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>12</v>
       </c>
@@ -4070,7 +4110,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -4087,7 +4127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4104,7 +4144,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +4161,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>12</v>
       </c>
@@ -4138,7 +4178,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>12</v>
       </c>
@@ -4155,7 +4195,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -4172,7 +4212,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4229,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -4206,7 +4246,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>12</v>
       </c>
@@ -4223,7 +4263,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -4240,7 +4280,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -4257,7 +4297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>12</v>
       </c>
@@ -4274,7 +4314,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -4291,7 +4331,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4308,7 +4348,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4325,7 +4365,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4382,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -4359,7 +4399,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -4376,7 +4416,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -4393,7 +4433,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -4410,7 +4450,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -4427,7 +4467,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4444,7 +4484,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -4461,7 +4501,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>12</v>
       </c>
@@ -4478,7 +4518,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -4495,7 +4535,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -4512,7 +4552,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -4529,7 +4569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>12</v>
       </c>
@@ -4546,7 +4586,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>12</v>
       </c>
@@ -4563,7 +4603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -4580,7 +4620,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -4597,7 +4637,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4614,7 +4654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -4631,7 +4671,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4648,7 +4688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -4665,7 +4705,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>12</v>
       </c>
@@ -4682,7 +4722,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>12</v>
       </c>
@@ -4699,7 +4739,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -4716,7 +4756,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -4733,7 +4773,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>12</v>
       </c>
@@ -4750,7 +4790,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>12</v>
       </c>
@@ -4767,7 +4807,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -4784,7 +4824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -4801,7 +4841,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +4858,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>12</v>
       </c>
@@ -4835,7 +4875,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -4852,7 +4892,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -4869,7 +4909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>12</v>
       </c>
@@ -4886,7 +4926,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>12</v>
       </c>
@@ -4903,7 +4943,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -4920,7 +4960,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4937,7 +4977,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -4954,7 +4994,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -4971,7 +5011,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -4988,7 +5028,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5005,7 +5045,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -5022,7 +5062,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -5056,7 +5096,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -5073,7 +5113,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>12</v>
       </c>
@@ -5090,7 +5130,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>12</v>
       </c>
@@ -5107,7 +5147,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -5124,7 +5164,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5141,7 +5181,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>12</v>
       </c>
@@ -5158,7 +5198,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>12</v>
       </c>
@@ -5175,7 +5215,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -5192,7 +5232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -5209,7 +5249,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -5226,7 +5266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5283,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -5260,7 +5300,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -5277,7 +5317,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>12</v>
       </c>
@@ -5294,7 +5334,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5351,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -5328,7 +5368,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -5345,7 +5385,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -5362,7 +5402,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -5379,7 +5419,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -5396,7 +5436,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -5413,7 +5453,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>12</v>
       </c>
@@ -5430,7 +5470,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>12</v>
       </c>
@@ -5447,7 +5487,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -5464,7 +5504,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -5481,7 +5521,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>12</v>
       </c>
@@ -5498,7 +5538,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>12</v>
       </c>
@@ -5515,7 +5555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -5532,7 +5572,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -5549,7 +5589,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>12</v>
       </c>
@@ -5566,7 +5606,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>12</v>
       </c>
@@ -5583,7 +5623,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -5600,7 +5640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -5617,7 +5657,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +5674,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>12</v>
       </c>
@@ -5651,7 +5691,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -5668,7 +5708,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -5685,7 +5725,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>12</v>
       </c>
@@ -5702,7 +5742,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -5719,7 +5759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5736,7 +5776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -5753,7 +5793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>12</v>
       </c>
@@ -5770,7 +5810,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>12</v>
       </c>
@@ -5787,7 +5827,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -5804,7 +5844,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -5821,7 +5861,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>12</v>
       </c>
@@ -5838,7 +5878,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>12</v>
       </c>
@@ -5855,7 +5895,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -5872,7 +5912,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -5889,7 +5929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>12</v>
       </c>
@@ -5906,7 +5946,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -5923,7 +5963,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -5940,7 +5980,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -5957,7 +5997,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>12</v>
       </c>
@@ -5974,7 +6014,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>12</v>
       </c>
@@ -5991,7 +6031,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -6008,7 +6048,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -6025,7 +6065,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>12</v>
       </c>
@@ -6042,7 +6082,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>12</v>
       </c>
@@ -6059,7 +6099,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -6076,7 +6116,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -6093,7 +6133,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>12</v>
       </c>
@@ -6110,7 +6150,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -6127,7 +6167,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -6144,7 +6184,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -6161,7 +6201,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>12</v>
       </c>
@@ -6178,7 +6218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -6195,8 +6235,417 @@
         <v>164</v>
       </c>
     </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314">
+        <v>2020</v>
+      </c>
+      <c r="C314">
+        <v>12499.201000000008</v>
+      </c>
+      <c r="D314" t="s">
+        <v>177</v>
+      </c>
+      <c r="E314" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315">
+        <v>2050</v>
+      </c>
+      <c r="C315">
+        <v>15032.424635213623</v>
+      </c>
+      <c r="D315" t="s">
+        <v>177</v>
+      </c>
+      <c r="E315" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316">
+        <v>2020</v>
+      </c>
+      <c r="C316">
+        <v>10791.666999999996</v>
+      </c>
+      <c r="D316" t="s">
+        <v>177</v>
+      </c>
+      <c r="E316" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>12</v>
+      </c>
+      <c r="B317">
+        <v>2050</v>
+      </c>
+      <c r="C317">
+        <v>14874.085957525955</v>
+      </c>
+      <c r="D317" t="s">
+        <v>177</v>
+      </c>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318">
+        <v>2020</v>
+      </c>
+      <c r="C318">
+        <v>12499.201000000008</v>
+      </c>
+      <c r="D318" t="s">
+        <v>177</v>
+      </c>
+      <c r="E318" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319">
+        <v>2050</v>
+      </c>
+      <c r="C319">
+        <v>24537.673946066119</v>
+      </c>
+      <c r="D319" t="s">
+        <v>177</v>
+      </c>
+      <c r="E319" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>12</v>
+      </c>
+      <c r="B320">
+        <v>2020</v>
+      </c>
+      <c r="C320">
+        <v>10791.666999999996</v>
+      </c>
+      <c r="D320" t="s">
+        <v>177</v>
+      </c>
+      <c r="E320" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>12</v>
+      </c>
+      <c r="B321">
+        <v>2050</v>
+      </c>
+      <c r="C321">
+        <v>22936.261799961649</v>
+      </c>
+      <c r="D321" t="s">
+        <v>177</v>
+      </c>
+      <c r="E321" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322">
+        <v>2020</v>
+      </c>
+      <c r="C322">
+        <v>12499.201000000008</v>
+      </c>
+      <c r="D322" t="s">
+        <v>177</v>
+      </c>
+      <c r="E322" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323">
+        <v>2050</v>
+      </c>
+      <c r="C323">
+        <v>24537.673946066119</v>
+      </c>
+      <c r="D323" t="s">
+        <v>177</v>
+      </c>
+      <c r="E323" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>12</v>
+      </c>
+      <c r="B324">
+        <v>2020</v>
+      </c>
+      <c r="C324">
+        <v>10791.666999999996</v>
+      </c>
+      <c r="D324" t="s">
+        <v>177</v>
+      </c>
+      <c r="E324" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>12</v>
+      </c>
+      <c r="B325">
+        <v>2050</v>
+      </c>
+      <c r="C325">
+        <v>22936.261799961649</v>
+      </c>
+      <c r="D325" t="s">
+        <v>177</v>
+      </c>
+      <c r="E325" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326">
+        <v>2020</v>
+      </c>
+      <c r="C326">
+        <v>3350.3550000000005</v>
+      </c>
+      <c r="D326" t="s">
+        <v>178</v>
+      </c>
+      <c r="E326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327">
+        <v>2050</v>
+      </c>
+      <c r="C327">
+        <v>4288.3690094369922</v>
+      </c>
+      <c r="D327" t="s">
+        <v>178</v>
+      </c>
+      <c r="E327" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>12</v>
+      </c>
+      <c r="B328">
+        <v>2020</v>
+      </c>
+      <c r="C328">
+        <v>1650.367</v>
+      </c>
+      <c r="D328" t="s">
+        <v>178</v>
+      </c>
+      <c r="E328" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329">
+        <v>2050</v>
+      </c>
+      <c r="C329">
+        <v>1241.2736801814012</v>
+      </c>
+      <c r="D329" t="s">
+        <v>178</v>
+      </c>
+      <c r="E329" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330">
+        <v>2020</v>
+      </c>
+      <c r="C330">
+        <v>3350.3550000000005</v>
+      </c>
+      <c r="D330" t="s">
+        <v>178</v>
+      </c>
+      <c r="E330" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331">
+        <v>2050</v>
+      </c>
+      <c r="C331">
+        <v>8717.1359040446732</v>
+      </c>
+      <c r="D331" t="s">
+        <v>178</v>
+      </c>
+      <c r="E331" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332">
+        <v>2020</v>
+      </c>
+      <c r="C332">
+        <v>1650.367</v>
+      </c>
+      <c r="D332" t="s">
+        <v>178</v>
+      </c>
+      <c r="E332" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>12</v>
+      </c>
+      <c r="B333">
+        <v>2050</v>
+      </c>
+      <c r="C333">
+        <v>2205.8216786352978</v>
+      </c>
+      <c r="D333" t="s">
+        <v>178</v>
+      </c>
+      <c r="E333" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334">
+        <v>2020</v>
+      </c>
+      <c r="C334">
+        <v>3350.3550000000005</v>
+      </c>
+      <c r="D334" t="s">
+        <v>178</v>
+      </c>
+      <c r="E334" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335">
+        <v>2050</v>
+      </c>
+      <c r="C335">
+        <v>19414.284057641988</v>
+      </c>
+      <c r="D335" t="s">
+        <v>178</v>
+      </c>
+      <c r="E335" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>12</v>
+      </c>
+      <c r="B336">
+        <v>2020</v>
+      </c>
+      <c r="C336">
+        <v>1650.367</v>
+      </c>
+      <c r="D336" t="s">
+        <v>178</v>
+      </c>
+      <c r="E336" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>12</v>
+      </c>
+      <c r="B337">
+        <v>2050</v>
+      </c>
+      <c r="C337">
+        <v>3784.0899862655251</v>
+      </c>
+      <c r="D337" t="s">
+        <v>178</v>
+      </c>
+      <c r="E337" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E313" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>